--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>土地坐落</t>
   </si>
@@ -192,7 +192,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中華電信</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1296,13 +1308,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1321,13 +1333,22 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1343,6 +1364,15 @@
       </c>
       <c r="G2" s="2">
         <v>240000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -1363,19 +1393,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1383,22 +1413,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1406,13 +1436,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1421,7 +1451,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1429,22 +1459,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1462,22 +1492,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1488,19 +1518,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>土地坐落</t>
   </si>
@@ -192,6 +192,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
   </si>
   <si>
     <t>中華電信</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-16</t>
@@ -1308,13 +1314,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1342,13 +1348,16 @@
       <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1366,12 +1375,15 @@
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
         <v>892</v>
       </c>
     </row>
@@ -1393,19 +1405,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1413,22 +1425,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1436,13 +1448,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1451,7 +1463,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1459,22 +1471,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1492,22 +1504,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1518,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
   <si>
     <t>土地坐落</t>
   </si>
@@ -195,6 +195,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -204,13 +207,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中華電信</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmp63271</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1314,13 +1329,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1351,13 +1366,22 @@
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1375,16 +1399,25 @@
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
         <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1405,19 +1438,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1425,22 +1458,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1448,13 +1481,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1463,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1471,22 +1504,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1504,22 +1537,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1530,19 +1563,19 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,60 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新竹市溪橋段0569-0000地號</t>
-  </si>
-  <si>
-    <t>新竹市武陵段1141-0045地號</t>
-  </si>
-  <si>
-    <t>新竹市武陵段1141-0101地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0157-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣平鎮市廣仁段0159-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0162-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0165-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣平鎮市廣仁段0166-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0167-0000 地號</t>
-  </si>
-  <si>
-    <t>桃園縣平鎮市廣仁段0158-0000 地號</t>
-  </si>
-  <si>
-    <t>桃圜縣平鎮市廣仁段0169-0000 地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新竹市溪橋段05690000地號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段11410045地號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段11410101地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01570000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣平鎮市廣仁段01590000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01620000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01650000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣平鎮市廣仁段01660000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01670000地號</t>
+  </si>
+  <si>
+    <t>桃園縣平鎮市廣仁段01580000地號</t>
+  </si>
+  <si>
+    <t>桃圜縣平鎮市廣仁段01690000地號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -90,16 +111,16 @@
     <t>程桂琴</t>
   </si>
   <si>
-    <t>77年06月 20日</t>
-  </si>
-  <si>
-    <t>93年04月 13曰</t>
-  </si>
-  <si>
-    <t>99年02月 08 H</t>
-  </si>
-  <si>
-    <t>99年02月 08日</t>
+    <t>77年06月20日</t>
+  </si>
+  <si>
+    <t>93年04月13曰</t>
+  </si>
+  <si>
+    <t>99年02月08H</t>
+  </si>
+  <si>
+    <t>99年02月08日</t>
   </si>
   <si>
     <t>100年3月</t>
@@ -111,19 +132,28 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>9,680，000(價 額為 158,159 地號合計）</t>
-  </si>
-  <si>
-    <t>新竹市武陵段06099-000建號</t>
-  </si>
-  <si>
-    <t>93年04月13曰</t>
-  </si>
-  <si>
-    <t>新竹市武陵段06113-000建號</t>
-  </si>
-  <si>
-    <t>93年04月 13日</t>
+    <t>9680000(價額為158159地號合計）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-16</t>
+  </si>
+  <si>
+    <t>tmp63271</t>
+  </si>
+  <si>
+    <t>新竹市武陵段06099000建號</t>
+  </si>
+  <si>
+    <t>新竹市武陵段06113000建號</t>
+  </si>
+  <si>
+    <t>93年04月13日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -150,7 +180,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北新竹 分行</t>
+    <t>合作金庫商業銀行北新竹分行</t>
   </si>
   <si>
     <t>臺湾銀行新竹分行</t>
@@ -174,12 +204,6 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -192,42 +216,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中華電信</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-16</t>
-  </si>
-  <si>
-    <t>tmp63271</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -252,16 +246,13 @@
     <t>臺灣銀行北大分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北新竹分 行</t>
-  </si>
-  <si>
-    <t>93年04月 13闩</t>
-  </si>
-  <si>
-    <t>100年05月 30日</t>
-  </si>
-  <si>
-    <t>購買房屋、 土地</t>
+    <t>93年04月13闩</t>
+  </si>
+  <si>
+    <t>100年05月30日</t>
+  </si>
+  <si>
+    <t>購買房屋土地</t>
   </si>
   <si>
     <t>購買土地</t>
@@ -285,7 +276,7 @@
     <t>新竹市中華路一段43號</t>
   </si>
   <si>
-    <t>75年03月 28日</t>
+    <t>75年03月28日</t>
   </si>
   <si>
     <t>成立公司</t>
@@ -647,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,317 +666,590 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1670.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>892</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1670.14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>892</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>892</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>892</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>2524.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>75500290</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>892</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>3.33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2">
         <v>15651</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>892</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>106.86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2">
         <v>1688388</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>892</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>2021.11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2">
         <v>31933538</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>892</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>25.82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2">
         <v>407956</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>892</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>8.58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2">
         <v>40326</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>892</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>169.83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>892</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>80.61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2">
         <v>9680000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>892</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1003,25 +1267,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1">
         <v>456.4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1029,25 +1293,25 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>260.28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1065,22 +1329,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1088,16 +1352,16 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1109,16 +1373,16 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1130,16 +1394,16 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1151,16 +1415,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1172,16 +1436,16 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1193,16 +1457,16 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1214,16 +1478,16 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2">
         <v>6.19</v>
@@ -1237,16 +1501,16 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>9.61</v>
@@ -1260,16 +1524,16 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>40457.79</v>
@@ -1283,16 +1547,16 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
         <v>20017.2</v>
@@ -1306,16 +1570,16 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1337,43 +1601,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1381,10 +1645,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>24000</v>
@@ -1393,28 +1657,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>892</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2">
         <v>94</v>
@@ -1435,22 +1699,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1458,22 +1722,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1481,22 +1745,22 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1504,22 +1768,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1537,22 +1801,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1560,22 +1824,22 @@
         <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -111,12 +111,12 @@
     <t>全部</t>
   </si>
   <si>
+    <t>呂學樟</t>
+  </si>
+  <si>
     <t>程桂琴</t>
   </si>
   <si>
-    <t>呂學樟</t>
-  </si>
-  <si>
     <t>77年06月20日</t>
   </si>
   <si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>中華電信</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>房屋抵押借款</t>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,7 +651,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -678,7 +684,7 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2">
         <v>892</v>
@@ -687,7 +693,7 @@
         <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
@@ -698,13 +704,13 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>191</v>
+        <v>1670.14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -713,7 +719,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
@@ -731,7 +737,7 @@
         <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <v>892</v>
@@ -740,30 +746,30 @@
         <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.5</v>
       </c>
       <c r="Q3" s="2">
-        <v>95.5</v>
+        <v>835.07</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>1267</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>33</v>
@@ -784,7 +790,7 @@
         <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>892</v>
@@ -793,39 +799,39 @@
         <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0113636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="2">
-        <v>14.3977272727273</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>2524.84</v>
+        <v>1267</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2">
-        <v>75500290</v>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>40</v>
@@ -837,7 +843,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
         <v>892</v>
@@ -846,30 +852,30 @@
         <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.5</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="Q5" s="2">
-        <v>1262.42</v>
+        <v>14.3977272727273</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>3.33</v>
+        <v>2524.84</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>34</v>
@@ -878,7 +884,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="2">
-        <v>15651</v>
+        <v>75500290</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>40</v>
@@ -890,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
         <v>892</v>
@@ -899,39 +905,39 @@
         <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.5</v>
       </c>
       <c r="Q6" s="2">
-        <v>1.665</v>
+        <v>1262.42</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>106.86</v>
+        <v>3.33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="2">
-        <v>1688388</v>
+        <v>15651</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>40</v>
@@ -943,7 +949,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
         <v>892</v>
@@ -952,30 +958,30 @@
         <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.5</v>
       </c>
       <c r="Q7" s="2">
-        <v>53.43</v>
+        <v>1.665</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>2021.11</v>
+        <v>106.86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>35</v>
@@ -984,7 +990,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="2">
-        <v>31933538</v>
+        <v>1688388</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>40</v>
@@ -996,7 +1002,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
         <v>892</v>
@@ -1005,30 +1011,30 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.5</v>
       </c>
       <c r="Q8" s="2">
-        <v>1010.555</v>
+        <v>53.43</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
-        <v>25.82</v>
+        <v>2021.11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>35</v>
@@ -1037,7 +1043,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="2">
-        <v>407956</v>
+        <v>31933538</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
@@ -1049,7 +1055,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2">
         <v>892</v>
@@ -1058,30 +1064,30 @@
         <v>43</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>0.5</v>
       </c>
       <c r="Q9" s="2">
-        <v>12.91</v>
+        <v>1010.555</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>8.58</v>
+        <v>25.82</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>35</v>
@@ -1090,7 +1096,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>40326</v>
+        <v>407956</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
@@ -1102,7 +1108,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="2">
         <v>892</v>
@@ -1111,39 +1117,39 @@
         <v>43</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
         <v>0.5</v>
       </c>
       <c r="Q10" s="2">
-        <v>4.29</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>169.83</v>
+        <v>8.58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
+      <c r="H11" s="2">
+        <v>40326</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>40</v>
@@ -1155,7 +1161,7 @@
         <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="2">
         <v>892</v>
@@ -1164,30 +1170,30 @@
         <v>43</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>169.83</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2">
-        <v>80.61</v>
+        <v>169.83</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
@@ -1195,8 +1201,8 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="2">
-        <v>9680000</v>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>40</v>
@@ -1208,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2">
         <v>892</v>
@@ -1217,12 +1223,65 @@
         <v>43</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
+        <v>169.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>80.61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9680000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>892</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>80.61</v>
       </c>
     </row>
@@ -1233,33 +1292,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="2">
         <v>260.28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>892</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.95772727272727</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1286,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1295,52 +1434,52 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1000000</v>
+        <v>5474321</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>160800</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -1349,19 +1488,19 @@
         <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>401159</v>
+        <v>160800</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -1374,102 +1513,100 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1306261</v>
+        <v>401159</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>3000000</v>
+        <v>1306261</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.19</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>182</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>9.61</v>
+        <v>6.19</v>
       </c>
       <c r="G8" s="2">
-        <v>369</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>40457.79</v>
+        <v>9.61</v>
       </c>
       <c r="G9" s="2">
-        <v>1194111</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
@@ -1478,36 +1615,59 @@
         <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>20017.2</v>
+        <v>40457.79</v>
       </c>
       <c r="G10" s="2">
-        <v>769060</v>
+        <v>1194111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20017.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>769060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>85</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>199408</v>
       </c>
     </row>
@@ -1518,13 +1678,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,6 +1723,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
+        <v>240000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1580,68 +1784,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>1242968</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1242968</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>130</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
         <v>5000000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1651,30 +1878,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>13800000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>135</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13800000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>93年04月13日</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行新竹分行</t>
@@ -1374,7 +1377,7 @@
         <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -1416,13 +1419,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1437,13 +1440,13 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -1458,13 +1461,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -1479,13 +1482,13 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -1500,13 +1503,13 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -1521,13 +1524,13 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
@@ -1542,13 +1545,13 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
@@ -1563,13 +1566,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
@@ -1586,13 +1589,13 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1609,13 +1612,13 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -1632,13 +1635,13 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -1655,13 +1658,13 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -1692,13 +1695,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1730,7 +1733,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1742,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1784,22 +1787,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>1242968</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1807,22 +1810,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1830,13 +1833,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1845,7 +1848,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1853,22 +1856,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1889,19 +1892,19 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>13800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1912,19 +1915,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -162,43 +162,52 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行新竹分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行北新竹分行</t>
+  </si>
+  <si>
+    <t>臺湾銀行新竹分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行新竹分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行北新竹分行</t>
-  </si>
-  <si>
-    <t>臺湾銀行新竹分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行新竹分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>歐元</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中華電信</t>
@@ -1411,13 +1420,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1428,250 +1437,482 @@
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>5474321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>5474321</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2">
+        <v>892</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>892</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>160800</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>892</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>401159</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>892</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1306261</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>892</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2">
+        <v>892</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>6.19</v>
-      </c>
-      <c r="G8" s="2">
         <v>182</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2">
+        <v>892</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>9.61</v>
-      </c>
-      <c r="G9" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>892</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>40457.79</v>
-      </c>
-      <c r="G10" s="2">
         <v>1194111</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <v>892</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>20017.2</v>
-      </c>
-      <c r="G11" s="2">
         <v>769060</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2">
+        <v>892</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>199408</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>892</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1695,13 +1936,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1733,7 +1974,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -1745,13 +1986,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>240000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>41</v>
@@ -1787,22 +2028,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>1242968</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1810,22 +2051,22 @@
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1833,13 +2074,13 @@
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>60000000</v>
@@ -1848,7 +2089,7 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1856,22 +2097,22 @@
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1892,19 +2133,19 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>13800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1915,19 +2156,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
+++ b/legislator/property/output/normal/呂學樟_2012-04-16_財產申報表_tmp63271.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -216,27 +216,42 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋抵押借款</t>
   </si>
   <si>
+    <t>土地抵押借款</t>
+  </si>
+  <si>
     <t>臺灣銀行北大分行</t>
   </si>
   <si>
     <t>93年04月13闩</t>
   </si>
   <si>
+    <t>100年05月30日</t>
+  </si>
+  <si>
     <t>購買房屋土地</t>
   </si>
   <si>
-    <t>土地抵押借款</t>
-  </si>
-  <si>
-    <t>100年05月30日</t>
-  </si>
-  <si>
     <t>購買土地</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>聯立汽車有限公司</t>
   </si>
   <si>
@@ -247,6 +262,9 @@
   </si>
   <si>
     <t>成立公司</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2020,61 +2038,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1242968</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1242968</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -2089,15 +2149,36 @@
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>892</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
@@ -2109,10 +2190,31 @@
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>892</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2122,33 +2224,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1">
-        <v>13800000</v>
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>135</v>
       </c>
@@ -2156,19 +2279,40 @@
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>13800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2">
+        <v>892</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="2">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
